--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl21b-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl21b-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Cxcr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,48 +537,48 @@
         <v>0.2073196666666667</v>
       </c>
       <c r="H2">
-        <v>0.621959</v>
+        <v>0.6219589999999999</v>
       </c>
       <c r="I2">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="J2">
-        <v>0.4385567570045023</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.863797</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N2">
-        <v>5.591391000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O2">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5455000708290748</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.3864017727743334</v>
+        <v>0.3915835896295556</v>
       </c>
       <c r="R2">
-        <v>3.477615954969</v>
+        <v>3.524252306666</v>
       </c>
       <c r="S2">
-        <v>0.2392327420085253</v>
+        <v>0.6398583988494134</v>
       </c>
       <c r="T2">
-        <v>0.2392327420085253</v>
+        <v>0.6398583988494134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -590,25 +587,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2073196666666667</v>
+        <v>0.116689</v>
       </c>
       <c r="H3">
-        <v>0.621959</v>
+        <v>0.350067</v>
       </c>
       <c r="I3">
-        <v>0.4385567570045023</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="J3">
-        <v>0.4385567570045023</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,152 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.552879</v>
+        <v>1.888791333333333</v>
       </c>
       <c r="N3">
-        <v>4.658637000000001</v>
+        <v>5.666374</v>
       </c>
       <c r="O3">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4544999291709252</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.3219423566536667</v>
+        <v>0.2204011718953333</v>
       </c>
       <c r="R3">
-        <v>2.897481209883001</v>
+        <v>1.983610547058</v>
       </c>
       <c r="S3">
-        <v>0.1993240149959769</v>
+        <v>0.3601416011505865</v>
       </c>
       <c r="T3">
-        <v>0.1993240149959769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.265412</v>
-      </c>
-      <c r="H4">
-        <v>0.7962359999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.5614432429954977</v>
-      </c>
-      <c r="J4">
-        <v>0.5614432429954979</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>1.863797</v>
-      </c>
-      <c r="N4">
-        <v>5.591391000000001</v>
-      </c>
-      <c r="O4">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="P4">
-        <v>0.5455000708290748</v>
-      </c>
-      <c r="Q4">
-        <v>0.494674089364</v>
-      </c>
-      <c r="R4">
-        <v>4.452066804276</v>
-      </c>
-      <c r="S4">
-        <v>0.3062673288205495</v>
-      </c>
-      <c r="T4">
-        <v>0.3062673288205495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.265412</v>
-      </c>
-      <c r="H5">
-        <v>0.7962359999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.5614432429954977</v>
-      </c>
-      <c r="J5">
-        <v>0.5614432429954979</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.552879</v>
-      </c>
-      <c r="N5">
-        <v>4.658637000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="P5">
-        <v>0.4544999291709252</v>
-      </c>
-      <c r="Q5">
-        <v>0.412152721148</v>
-      </c>
-      <c r="R5">
-        <v>3.709374490332</v>
-      </c>
-      <c r="S5">
-        <v>0.2551759141749483</v>
-      </c>
-      <c r="T5">
-        <v>0.2551759141749483</v>
+        <v>0.3601416011505865</v>
       </c>
     </row>
   </sheetData>
